--- a/CampaignDesigner/Рекламная кампания Яндекс Директ.xlsx
+++ b/CampaignDesigner/Рекламная кампания Яндекс Директ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Доп. объявление группы</t>
   </si>
@@ -64,40 +64,9 @@
     <t>+</t>
   </si>
   <si>
-    <t>namegroup</t>
-  </si>
-  <si>
-    <t>frase</t>
-  </si>
-  <si>
-    <t>header1</t>
-  </si>
-  <si>
-    <t>header2</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>sangezeigtlink</t>
-  </si>
-  <si>
-    <t>bewerten</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>headerfastlink</t>
-  </si>
-  <si>
-    <t>textfastlink</t>
-  </si>
-  <si>
-    <t>linkfastkink</t>
+    <t>wsadc_x000D_
+aSDcdASFRZxc_x000D_
+fsdzcxdzcxszdcx</t>
   </si>
 </sst>
 </file>
@@ -489,41 +458,8 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
